--- a/data_analysis/machine_methods/please_delete.xlsx
+++ b/data_analysis/machine_methods/please_delete.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -588,18 +588,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="H5">
+        <f>AVERAGEIF(C:C,G5,D:D)</f>
+        <v/>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -607,18 +622,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>nb</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nb</t>
+        </is>
+      </c>
+      <c r="H6">
+        <f>AVERAGEIF(C:C,G6,D:D)</f>
+        <v/>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +660,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>logreg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -645,18 +675,18 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>svc</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -664,11 +694,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -683,11 +713,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -702,11 +732,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>nb</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -721,11 +751,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>logreg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -740,18 +770,18 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>svc</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -759,18 +789,18 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -778,18 +808,18 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -797,18 +827,18 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>nb</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -816,7 +846,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -835,7 +865,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -843,10 +873,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -854,7 +884,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -862,10 +892,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -873,18 +903,18 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
@@ -892,18 +922,18 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>nb</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -911,18 +941,18 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>logreg</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -930,11 +960,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>svc</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -949,11 +979,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -968,11 +998,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -987,18 +1017,18 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>nb</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1006,18 +1036,18 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>logreg</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1025,11 +1055,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>svc</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1044,18 +1074,18 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1063,18 +1093,18 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1082,11 +1112,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>nb</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1101,7 +1131,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1120,7 +1150,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1128,10 +1158,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34">
@@ -1139,7 +1169,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1147,10 +1177,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
@@ -1158,11 +1188,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1177,11 +1207,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>nb</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1196,18 +1226,18 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>logreg</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1215,11 +1245,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>svc</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1234,11 +1264,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1253,11 +1283,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1272,11 +1302,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>nb</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1291,11 +1321,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>logreg</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1310,18 +1340,18 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>svc</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44">
@@ -1329,11 +1359,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1348,11 +1378,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1367,11 +1397,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>nb</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1386,7 +1416,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1394,10 +1424,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48">
@@ -1405,7 +1435,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1413,10 +1443,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49">
@@ -1424,7 +1454,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1432,10 +1462,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50">
@@ -1443,18 +1473,18 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51">
@@ -1462,18 +1492,18 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>nb</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52">
@@ -1481,18 +1511,18 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>logreg</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53">
@@ -1500,18 +1530,18 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>svc</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54">
@@ -1519,11 +1549,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1538,18 +1568,18 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56">
@@ -1557,11 +1587,11 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>nb</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1576,11 +1606,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>logreg</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1595,11 +1625,11 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>svc</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1614,18 +1644,18 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60">
@@ -1633,18 +1663,18 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61">
@@ -1652,11 +1682,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>nb</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1671,7 +1701,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1690,7 +1720,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1709,7 +1739,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1728,18 +1758,18 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66">
@@ -1747,11 +1777,11 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>nb</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1766,11 +1796,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>logreg</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1785,11 +1815,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>svc</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1804,11 +1834,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1823,11 +1853,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1842,11 +1872,11 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>nb</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1861,18 +1891,18 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>logreg</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73">
@@ -1880,11 +1910,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>svc</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1899,11 +1929,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>logreg</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1918,11 +1948,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1937,18 +1967,18 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>nb</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1956,7 +1986,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1975,7 +2005,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1994,18 +2024,1006 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>19</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>19</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>19</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>nb</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>20</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>logreg</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>20</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>svc</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>20</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>20</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>20</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>nb</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>22</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>logreg</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>22</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>svc</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>22</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>22</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>22</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>nb</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>23</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>logreg</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>23</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>svc</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>23</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>23</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>23</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>nb</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>24</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>logreg</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>24</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>svc</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>24</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>24</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>24</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>nb</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>25</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>logreg</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>25</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>svc</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>25</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>25</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>25</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>nb</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>26</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>logreg</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>26</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>svc</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>26</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>26</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>26</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>nb</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>27</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>logreg</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>27</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>svc</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>27</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>27</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>27</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>nb</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>28</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>logreg</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>28</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>svc</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>28</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>28</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>28</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>nb</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>29</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>logreg</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>29</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>svc</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>29</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>29</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>29</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>nb</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
         <v>30</v>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>logreg</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>30</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>svc</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>30</v>
+      </c>
+      <c r="C129" t="inlineStr">
         <is>
           <t>knn</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.5</v>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>30</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>30</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>nb</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
